--- a/ResultadoEleicoesDistritos/SETÚBAL_MOITA.xlsx
+++ b/ResultadoEleicoesDistritos/SETÚBAL_MOITA.xlsx
@@ -597,64 +597,64 @@
         <v>17642</v>
       </c>
       <c r="H2" t="n">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="I2" t="n">
-        <v>1742</v>
+        <v>1790</v>
       </c>
       <c r="J2" t="n">
-        <v>7241</v>
+        <v>7224</v>
       </c>
       <c r="K2" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="L2" t="n">
-        <v>1936</v>
+        <v>1932</v>
       </c>
       <c r="M2" t="n">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="N2" t="n">
-        <v>1250</v>
+        <v>1291</v>
       </c>
       <c r="O2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P2" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Q2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R2" t="n">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="S2" t="n">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="T2" t="n">
-        <v>1285</v>
+        <v>1302</v>
       </c>
       <c r="U2" t="n">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="V2" t="n">
-        <v>11218</v>
+        <v>11355</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>11432</v>
+        <v>11230</v>
       </c>
       <c r="Y2" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="Z2" t="n">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="AA2" t="n">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
